--- a/test_info/data/HU1-001/CP-005/objects.xlsx
+++ b/test_info/data/HU1-001/CP-005/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan_piedrahita\Documents\jp\bvc\tests\A2censoTest\test_info\data\HU1-001\CP-005\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA8101C-FB35-4D0A-9D82-7D00B2A0AFEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94BD90E-E1F6-4A0C-A43B-3FFC6B6B7064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58DB2863-25CE-48F2-AA27-D6192448486C}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>vitrina_section</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[2]/div[1]/div[2]/ul/li[5]/a</t>
-  </si>
-  <si>
     <t>section_vitrina</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Vitrina</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[2]/ul/li[5]/a</t>
   </si>
 </sst>
 </file>
@@ -419,10 +419,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -440,13 +443,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -454,13 +457,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -474,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -488,7 +491,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
